--- a/Personal knowledge and experiences.xlsx
+++ b/Personal knowledge and experiences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TaskList" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Anti-patterns" sheetId="7" r:id="rId5"/>
     <sheet name="Struts2" sheetId="8" r:id="rId6"/>
     <sheet name="Junit" sheetId="9" r:id="rId7"/>
+    <sheet name="HTTP" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="358">
   <si>
     <t>implement chức năng PAGE LINK</t>
   </si>
@@ -1357,6 +1358,263 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/File:Abstract_factory.svg</t>
+  </si>
+  <si>
+    <t>Request methods</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>TRACE</t>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+  </si>
+  <si>
+    <t>CONNECT</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>How server response</t>
+  </si>
+  <si>
+    <t>Trả về tài nguyên được yêu cầu.</t>
+  </si>
+  <si>
+    <t>Chỉ trả về response header của tài nguyên được yêu cầu.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chấp nhận dữ liệu được gởi kèm và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tạo mới </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dữ liệu dựa trên url kèm theo nó. Nếu URL trỏ đến 1 dữ liệu đã tồn tại, thì ghi đè lên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chỉnh sửa dữ liệu của URL tương ứng bằng dữ liệu được gửi kèm.</t>
+  </si>
+  <si>
+    <t>Xóa dữ liệu tại Url được yêu cầu.</t>
+  </si>
+  <si>
+    <t>Gửi về thông điệp http request được nhận bởi server.</t>
+  </si>
+  <si>
+    <t>Gửi về các method được hỗ trợ cho Url chỉ định.</t>
+  </si>
+  <si>
+    <t>Xem http request là 1 thông điệp theo format TCP/IP tunnel - thường để tạo ssl-encrypted connection.</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa 1 phần của dữ liệu trong URL được gửi lên.</t>
+  </si>
+  <si>
+    <t>Ghi chú:</t>
+  </si>
+  <si>
+    <t>Thông thường, Ít nhất phải implement 2 method GET và POST trong web server.</t>
+  </si>
+  <si>
+    <t>Tomcat tự động trả về response code 405 SC_METHOD_NOT_ALLOWED khi request các method không được implement.</t>
+  </si>
+  <si>
+    <t>Muốn implement method nào thì override method đó tương ứng trong lớp thực tế sau khi kế thừa lớp HttpServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Sự khác nhau giữa POST và PUT: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eg: PUT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/article/1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP/1.1 &amp; POST </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP/1.1</t>
+    </r>
+  </si>
+  <si>
+    <t>PUT method thực hiện việc chỉnh sửa hoặc thêm mới dữ liệu vào 1 URL cụ thể ( article có id = 1234)</t>
+  </si>
+  <si>
+    <t>POST method thực hiện việc thêm mới dữ liệu, server sẽ tự động sinh ra URL cụ thể cho dữ liệu đó.</t>
+  </si>
+  <si>
+    <t>thay PUT /article/1234 bằng POST /article/1234 thì server vẫn hiểu và chạy được.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Những method GET/HEAD/OPTIONS/TRACE được gọi là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>safe methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bởi vì nó không ảnh hưởng đến dữ liệu, trạng thái của server.</t>
+    </r>
+  </si>
+  <si>
+    <t>***Cẩn thận khi POST được gửi nhiều lần.</t>
+  </si>
+  <si>
+    <t>Tất cả nội dung trên đây chỉ đúng khi các request method thực hiện đúng chức năng của nó và tùy thuộc vào thiết kế của ứng dụng web.</t>
+  </si>
+  <si>
+    <t>Ví dụ: nội dung trên có thể sai khi một yêu cầu GET có thể tạo mới dữ liệu trên server.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bởi vì HTTP là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stateless protocol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(mỗi request/response không biểu thị trạng thái - session/transaction là các khái niệm khác được định nghĩa bằng lập trình), nên tất cả các request method trừ POST được coi là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idempotent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (trạng thái của server không thay đổi khi 1 request được gửi lại nhiều lần)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1518,7 +1776,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1560,10 +1818,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2014,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2306,11 +2565,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:7" s="11" customFormat="1" ht="120.75" thickBot="1">
       <c r="A3" s="9">
@@ -2325,7 +2584,7 @@
       <c r="D3" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2385,11 +2644,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" ht="43.5" thickBot="1">
       <c r="A10" s="9">
@@ -2491,11 +2750,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" s="11" customFormat="1" ht="43.5" thickBot="1">
       <c r="A20" s="9">
@@ -2641,11 +2900,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" s="11" customFormat="1" ht="43.5" thickBot="1">
       <c r="A34" s="9">
@@ -2789,11 +3048,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="43.5" thickBot="1">
       <c r="A3" s="9">
@@ -2928,11 +3187,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="72" thickBot="1">
       <c r="A16" s="9">
@@ -3067,11 +3326,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="29.25" thickBot="1">
       <c r="A29" s="9">
@@ -3305,11 +3564,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="9">
@@ -3422,11 +3681,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" s="9">
@@ -3488,7 +3747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -3875,4 +4136,173 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Personal knowledge and experiences.xlsx
+++ b/Personal knowledge and experiences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="506" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TaskList" sheetId="4" r:id="rId1"/>
@@ -12,16 +12,19 @@
     <sheet name="Practices" sheetId="2" r:id="rId3"/>
     <sheet name="Design patterns" sheetId="5" r:id="rId4"/>
     <sheet name="Anti-patterns" sheetId="7" r:id="rId5"/>
-    <sheet name="Struts2" sheetId="8" r:id="rId6"/>
-    <sheet name="Junit" sheetId="9" r:id="rId7"/>
-    <sheet name="HTTP" sheetId="10" r:id="rId8"/>
+    <sheet name="Junit" sheetId="9" r:id="rId6"/>
+    <sheet name="HTTP" sheetId="10" r:id="rId7"/>
+    <sheet name="Servlet API" sheetId="11" r:id="rId8"/>
+    <sheet name="JSP" sheetId="12" r:id="rId9"/>
+    <sheet name="Struts2" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="428">
   <si>
     <t>implement chức năng PAGE LINK</t>
   </si>
@@ -1246,9 +1249,6 @@
     <t>(under the hood : những class đó được prepare trước run time)</t>
   </si>
   <si>
-    <t>Thay thế 1 class = 1 object được mock (thay thế tất cả các method của class = stub)</t>
-  </si>
-  <si>
     <t>Dummy</t>
   </si>
   <si>
@@ -1615,13 +1615,755 @@
       </rPr>
       <t xml:space="preserve"> (trạng thái của server không thay đổi khi 1 request được gửi lại nhiều lần)</t>
     </r>
+  </si>
+  <si>
+    <t>Servlet là gì ?</t>
+  </si>
+  <si>
+    <t>Là 1 class Java mô phỏng hoạt động của 1 server trong mô hình Client-Server.</t>
+  </si>
+  <si>
+    <t>Servlet tiếp nhận 1 ServletRequest, xử lý sau đó trả về 1 ServletResponse hoặc throw ServletException/IOException nếu có lỗi.</t>
+  </si>
+  <si>
+    <t>Servlet trong web development.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Servlet được quản lý bởi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servlet container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Servlet container sẽ:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hủy một servlet khi kết thúc (tắt web server, reload servlet, remove servlet, etc).</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servlet container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] lúc này được gọi là web container.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có 2 cách để khai báo servlet trong container: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">annotation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deployment descriptor (web.xml)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi servlet được khai báo implement interface </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SingleThreadModel,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thì sẽ có nhiều instance của servlet được tạo ra khi có nhiều request đến cùng lúc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bình thường, web server không bị phân tán, mặc định web container chỉ tạo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 instance cho mỗi servlet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và phục vụ các request bằng cách gọi service() trên nhiều thread khác nhau.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Theo lý thuyết thì Servlet có thể hoạt động trên nhiều giao thức C-S khác nhau như http, ftp, etc nhưng hiện tại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HTTP (HttpServlet) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đang được hỗ trợ và sử dụng nhiều nhất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Servlet có 3 method chính cần được implement là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>init()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destroy()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Ngoài ra có thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getServletConfig() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> getServletInfo()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Tạo 1 thread mới và phục vụ (service) mỗi khi có request tương ứng với URL pattern của servlet.</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CHÚ Ý: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>việc implement SingleThreadModel đôi khi không giải quyết vấn đề xử lý song song (trường hợp có static class member, session, etc).</t>
+    </r>
+  </si>
+  <si>
+    <t>Quy trình load 1 servlet.</t>
+  </si>
+  <si>
+    <t>Servlet API/Servlet technology là gì ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gồm 2 công nghệ: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Servlet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servlet container.</t>
+    </r>
+  </si>
+  <si>
+    <t>Servlet sẽ được implement bởi web developer và Servlet container sẽ được implement bởi Servlet container vendor.</t>
+  </si>
+  <si>
+    <t>Sevlet và servlet container kết hợp với nhau tạo thành một web application server.</t>
+  </si>
+  <si>
+    <t>Dùng Servlet technology để tạo một ứng dụng web có các điểm thuận lợi :</t>
+  </si>
+  <si>
+    <t>1.Tận dụng được tính cross-platform của ngôn ngữ Java.</t>
+  </si>
+  <si>
+    <t>3.An toàn hơn (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Tốn ít tài nguyên hệ thống (RAM, CPU) hơn so với CGI truyền thống (?). </t>
+  </si>
+  <si>
+    <t>Theo cơ chế của Java, mỗi ứng dụng Java được chạy trong 1 sandbox.</t>
+  </si>
+  <si>
+    <t>Dùng Thread thay vì process, chỉ dùng 1 instance duy nhất.</t>
+  </si>
+  <si>
+    <t>4.Công nghệ đã được hoàn thiện, ổn định, cộng đồng support đông đảo.</t>
+  </si>
+  <si>
+    <t>Servlet Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Khởi tạo Servlet (init)</t>
+  </si>
+  <si>
+    <t>Có một context ROOT của tất cả web app. Khi deploy, deploy tất cả tài nguyên của web app vào thư mục ROOT này.</t>
+  </si>
+  <si>
+    <t>Thực ra là 1 thư mục để chứa tất cả tài nguyên của web app.</t>
+  </si>
+  <si>
+    <t>Multit-threading issues</t>
+  </si>
+  <si>
+    <t>Web container sẽ tạo 1 thread gọi hàm service() để phục vụ 1 request (1 instance của Servlet).</t>
+  </si>
+  <si>
+    <r>
+      <t>Khi Servlet implement [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SingleThreadModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] thì sẽ tạo nhiều instance của Servlet để phục vụ song song.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bởi vì hàm service(Request, Response) được xử lý xong song, nên những hàm con và đối tượng được gọi bởi service() không được gán </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">synchronized </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifier để bảo đảm performance cho toàn hệ thống.</t>
+    </r>
+  </si>
+  <si>
+    <t>Asynchonous processing</t>
+  </si>
+  <si>
+    <t>Đôi khi, việc phục vụ một request có thể kéo dài không phải vì xử lý phức tạp mà bởi vì phải chờ phản hồi từ một module khác (gọi web service khác, connect đến remote database, remote call, etc).</t>
+  </si>
+  <si>
+    <t>Khi đó, có những vấn đề sau xảy ra:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Tồn tại hàng trăm thread trong web container bị đứng lại vì chờ resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Vì thread pool có hạn nên những request đến sau bị từ chối.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Từ chối request của user là bad experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; Asynchronous servlet</t>
+  </si>
+  <si>
+    <t>HOW TO:</t>
+  </si>
+  <si>
+    <r>
+      <t>Gọi request.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>startAsync()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để lấy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AsyncContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong service() của servlet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khai báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>async support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho servlet (trong web.xml hoặc annotation). Chú ý nếu khai báo trong web.xml, phải sử dụng scheema version 3.0 trở lên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi có được AsyncContext, ta có thể tạo 1 thread khác để get resource hoặc chờ event.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sau khi kết thúc async task, cần phải gọi complete() hoặc dispatch() của object </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AsyncContext.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <r>
+      <t>Có thể add listenner để quản lý life cycle của</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AsyncContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thay vì call </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AsyncContext.complete()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có thể call </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AsyncContext.dispatch()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để gửi cho 1 servlet khác xử lý tiếp.</t>
+    </r>
+  </si>
+  <si>
+    <t>Từ 1 servlet có support async có thể dispatch đến 1 servlet khác ko support async nhưng điều ngược lại không thể thực hiện được.</t>
+  </si>
+  <si>
+    <t>Filter cũng có async support.</t>
+  </si>
+  <si>
+    <t>Filter sẽ chỉ được áp dụng đối với request khi truyền vào hàm service(), response trả ra từ async Task sẽ không được filter.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> =&gt;Phải wrap response trước khi truyền vào startAsync(Resquest,Response). HOW ?? Dùng class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ServletResponseWrapper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hoặc các class thừa kế nó.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nên sử dụng kết hợp Asynchronous servlet với AJAX ở front end để có trải nghiệm người dùng tốt.</t>
+  </si>
+  <si>
+    <t>Nếu response được wrap, nên gọi flush() trước khi ghi ra output để tránh bị mất content trước khi startAsync(void).</t>
+  </si>
+  <si>
+    <t>Dispatcher</t>
+  </si>
+  <si>
+    <t>Definition: dispatches resources in container's context.</t>
+  </si>
+  <si>
+    <t>Có 4 loại dispatcher: REQUEST, FORWARD, INCLUDE, ERROR</t>
+  </si>
+  <si>
+    <t>How to implement a Custom tag:</t>
+  </si>
+  <si>
+    <t>1.Choose what kind of tag to use: Tag, SimpleTag or BodyTag</t>
+  </si>
+  <si>
+    <t>2.Implement Tag interface methods và return constant hợp lý: SKIP_BODY, EVAL_BODY_INCLUDE, SKIP_PAGE, EVAL_PAGE</t>
+  </si>
+  <si>
+    <t>3.Khai báo custom tag trong file TLD.</t>
+  </si>
+  <si>
+    <t>4.Include trong file JSP và sử dụng.</t>
+  </si>
+  <si>
+    <t>Life cycle</t>
+  </si>
+  <si>
+    <t>Jsp technology</t>
+  </si>
+  <si>
+    <t>Servlet version : 3.1</t>
+  </si>
+  <si>
+    <t>Date: 14 04 2016</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Thay thế 1 method của class = 1 mocked method (hoặc thay thế tất cả các method của class = stub)</t>
+  </si>
+  <si>
+    <t>Tùy thuộc vào vị trí của unit test trong SDLC mà có những mục đích khác nhau.</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,6 +2430,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1776,7 +2533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1821,8 +2578,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1981,6 +2740,2567 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="90" name="Group 89"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14573250" y="4991101"/>
+          <a:ext cx="3914775" cy="3667123"/>
+          <a:chOff x="14497050" y="3143251"/>
+          <a:chExt cx="3914775" cy="3667123"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="87" name="Group 86"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="14497050" y="3143251"/>
+            <a:ext cx="3914775" cy="3667123"/>
+            <a:chOff x="14658975" y="2638426"/>
+            <a:chExt cx="3914775" cy="3667123"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="75" name="Group 74"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14658975" y="2638426"/>
+              <a:ext cx="3914775" cy="3162299"/>
+              <a:chOff x="14611350" y="2638426"/>
+              <a:chExt cx="3914775" cy="3162299"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="40" name="Group 39"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="14611350" y="3276600"/>
+                <a:ext cx="3914775" cy="2524125"/>
+                <a:chOff x="9677400" y="3248025"/>
+                <a:chExt cx="3914775" cy="2524125"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="41" name="Group 23"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="9677400" y="3248025"/>
+                  <a:ext cx="3914775" cy="2524125"/>
+                  <a:chOff x="5476875" y="3267075"/>
+                  <a:chExt cx="3914775" cy="2524125"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="45" name="Group 14"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="5476875" y="3267075"/>
+                    <a:ext cx="3914775" cy="2524125"/>
+                    <a:chOff x="333375" y="3276600"/>
+                    <a:chExt cx="2695575" cy="1914525"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="333375" y="3276600"/>
+                      <a:ext cx="2695575" cy="1914525"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="roundRect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100"/>
+                        <a:t>JVM</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="49" name="Rounded Rectangle 48"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="517015" y="3543911"/>
+                      <a:ext cx="2288943" cy="1589416"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="roundRect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent5">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent5"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent5"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100"/>
+                        <a:t>Web container (tomcat)</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5924551" y="4000499"/>
+                    <a:ext cx="2895600" cy="1609725"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent3"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent3"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:t>Web app</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="47" name="Snip Single Corner Rectangle 46"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="6115050" y="5286375"/>
+                    <a:ext cx="790575" cy="238125"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="snip1Rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent4"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:t>web.xml</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10458450" y="4619625"/>
+                  <a:ext cx="1000125" cy="390525"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent6"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Servlet1</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="57" name="Group 56"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="15287625" y="2686050"/>
+                <a:ext cx="1238250" cy="1962150"/>
+                <a:chOff x="17116425" y="5114925"/>
+                <a:chExt cx="1238250" cy="1962150"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
+                <xdr:cNvCxnSpPr>
+                  <a:endCxn id="44" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1">
+                  <a:off x="17721263" y="5343525"/>
+                  <a:ext cx="7144" cy="1733550"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="55" name="TextBox 54"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17116425" y="5114925"/>
+                  <a:ext cx="1238250" cy="238125"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>GET </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t>http://abc.xyz</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="64" name="Group 63"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="17068801" y="4352925"/>
+                <a:ext cx="676274" cy="1001886"/>
+                <a:chOff x="19135726" y="4143375"/>
+                <a:chExt cx="676274" cy="1001886"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="62" name="Freeform 61"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="19165031" y="4143375"/>
+                  <a:ext cx="540751" cy="1001886"/>
+                </a:xfrm>
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 189769 w 540751"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 1001886"/>
+                    <a:gd name="connsiteX1" fmla="*/ 475519 w 540751"/>
+                    <a:gd name="connsiteY1" fmla="*/ 9525 h 1001886"/>
+                    <a:gd name="connsiteX2" fmla="*/ 532669 w 540751"/>
+                    <a:gd name="connsiteY2" fmla="*/ 19050 h 1001886"/>
+                    <a:gd name="connsiteX3" fmla="*/ 504094 w 540751"/>
+                    <a:gd name="connsiteY3" fmla="*/ 47625 h 1001886"/>
+                    <a:gd name="connsiteX4" fmla="*/ 465994 w 540751"/>
+                    <a:gd name="connsiteY4" fmla="*/ 57150 h 1001886"/>
+                    <a:gd name="connsiteX5" fmla="*/ 427894 w 540751"/>
+                    <a:gd name="connsiteY5" fmla="*/ 76200 h 1001886"/>
+                    <a:gd name="connsiteX6" fmla="*/ 399319 w 540751"/>
+                    <a:gd name="connsiteY6" fmla="*/ 95250 h 1001886"/>
+                    <a:gd name="connsiteX7" fmla="*/ 313594 w 540751"/>
+                    <a:gd name="connsiteY7" fmla="*/ 114300 h 1001886"/>
+                    <a:gd name="connsiteX8" fmla="*/ 275494 w 540751"/>
+                    <a:gd name="connsiteY8" fmla="*/ 123825 h 1001886"/>
+                    <a:gd name="connsiteX9" fmla="*/ 189769 w 540751"/>
+                    <a:gd name="connsiteY9" fmla="*/ 152400 h 1001886"/>
+                    <a:gd name="connsiteX10" fmla="*/ 161194 w 540751"/>
+                    <a:gd name="connsiteY10" fmla="*/ 161925 h 1001886"/>
+                    <a:gd name="connsiteX11" fmla="*/ 142144 w 540751"/>
+                    <a:gd name="connsiteY11" fmla="*/ 190500 h 1001886"/>
+                    <a:gd name="connsiteX12" fmla="*/ 218344 w 540751"/>
+                    <a:gd name="connsiteY12" fmla="*/ 238125 h 1001886"/>
+                    <a:gd name="connsiteX13" fmla="*/ 265969 w 540751"/>
+                    <a:gd name="connsiteY13" fmla="*/ 247650 h 1001886"/>
+                    <a:gd name="connsiteX14" fmla="*/ 389794 w 540751"/>
+                    <a:gd name="connsiteY14" fmla="*/ 276225 h 1001886"/>
+                    <a:gd name="connsiteX15" fmla="*/ 494569 w 540751"/>
+                    <a:gd name="connsiteY15" fmla="*/ 285750 h 1001886"/>
+                    <a:gd name="connsiteX16" fmla="*/ 418369 w 540751"/>
+                    <a:gd name="connsiteY16" fmla="*/ 295275 h 1001886"/>
+                    <a:gd name="connsiteX17" fmla="*/ 380269 w 540751"/>
+                    <a:gd name="connsiteY17" fmla="*/ 304800 h 1001886"/>
+                    <a:gd name="connsiteX18" fmla="*/ 332644 w 540751"/>
+                    <a:gd name="connsiteY18" fmla="*/ 314325 h 1001886"/>
+                    <a:gd name="connsiteX19" fmla="*/ 256444 w 540751"/>
+                    <a:gd name="connsiteY19" fmla="*/ 323850 h 1001886"/>
+                    <a:gd name="connsiteX20" fmla="*/ 180244 w 540751"/>
+                    <a:gd name="connsiteY20" fmla="*/ 342900 h 1001886"/>
+                    <a:gd name="connsiteX21" fmla="*/ 161194 w 540751"/>
+                    <a:gd name="connsiteY21" fmla="*/ 371475 h 1001886"/>
+                    <a:gd name="connsiteX22" fmla="*/ 227869 w 540751"/>
+                    <a:gd name="connsiteY22" fmla="*/ 400050 h 1001886"/>
+                    <a:gd name="connsiteX23" fmla="*/ 256444 w 540751"/>
+                    <a:gd name="connsiteY23" fmla="*/ 409575 h 1001886"/>
+                    <a:gd name="connsiteX24" fmla="*/ 342169 w 540751"/>
+                    <a:gd name="connsiteY24" fmla="*/ 419100 h 1001886"/>
+                    <a:gd name="connsiteX25" fmla="*/ 446944 w 540751"/>
+                    <a:gd name="connsiteY25" fmla="*/ 438150 h 1001886"/>
+                    <a:gd name="connsiteX26" fmla="*/ 418369 w 540751"/>
+                    <a:gd name="connsiteY26" fmla="*/ 457200 h 1001886"/>
+                    <a:gd name="connsiteX27" fmla="*/ 313594 w 540751"/>
+                    <a:gd name="connsiteY27" fmla="*/ 476250 h 1001886"/>
+                    <a:gd name="connsiteX28" fmla="*/ 218344 w 540751"/>
+                    <a:gd name="connsiteY28" fmla="*/ 495300 h 1001886"/>
+                    <a:gd name="connsiteX29" fmla="*/ 170719 w 540751"/>
+                    <a:gd name="connsiteY29" fmla="*/ 504825 h 1001886"/>
+                    <a:gd name="connsiteX30" fmla="*/ 113569 w 540751"/>
+                    <a:gd name="connsiteY30" fmla="*/ 523875 h 1001886"/>
+                    <a:gd name="connsiteX31" fmla="*/ 170719 w 540751"/>
+                    <a:gd name="connsiteY31" fmla="*/ 561975 h 1001886"/>
+                    <a:gd name="connsiteX32" fmla="*/ 237394 w 540751"/>
+                    <a:gd name="connsiteY32" fmla="*/ 581025 h 1001886"/>
+                    <a:gd name="connsiteX33" fmla="*/ 332644 w 540751"/>
+                    <a:gd name="connsiteY33" fmla="*/ 590550 h 1001886"/>
+                    <a:gd name="connsiteX34" fmla="*/ 418369 w 540751"/>
+                    <a:gd name="connsiteY34" fmla="*/ 600075 h 1001886"/>
+                    <a:gd name="connsiteX35" fmla="*/ 456469 w 540751"/>
+                    <a:gd name="connsiteY35" fmla="*/ 609600 h 1001886"/>
+                    <a:gd name="connsiteX36" fmla="*/ 399319 w 540751"/>
+                    <a:gd name="connsiteY36" fmla="*/ 619125 h 1001886"/>
+                    <a:gd name="connsiteX37" fmla="*/ 304069 w 540751"/>
+                    <a:gd name="connsiteY37" fmla="*/ 628650 h 1001886"/>
+                    <a:gd name="connsiteX38" fmla="*/ 246919 w 540751"/>
+                    <a:gd name="connsiteY38" fmla="*/ 638175 h 1001886"/>
+                    <a:gd name="connsiteX39" fmla="*/ 161194 w 540751"/>
+                    <a:gd name="connsiteY39" fmla="*/ 647700 h 1001886"/>
+                    <a:gd name="connsiteX40" fmla="*/ 170719 w 540751"/>
+                    <a:gd name="connsiteY40" fmla="*/ 695325 h 1001886"/>
+                    <a:gd name="connsiteX41" fmla="*/ 265969 w 540751"/>
+                    <a:gd name="connsiteY41" fmla="*/ 714375 h 1001886"/>
+                    <a:gd name="connsiteX42" fmla="*/ 380269 w 540751"/>
+                    <a:gd name="connsiteY42" fmla="*/ 733425 h 1001886"/>
+                    <a:gd name="connsiteX43" fmla="*/ 237394 w 540751"/>
+                    <a:gd name="connsiteY43" fmla="*/ 752475 h 1001886"/>
+                    <a:gd name="connsiteX44" fmla="*/ 56419 w 540751"/>
+                    <a:gd name="connsiteY44" fmla="*/ 781050 h 1001886"/>
+                    <a:gd name="connsiteX45" fmla="*/ 27844 w 540751"/>
+                    <a:gd name="connsiteY45" fmla="*/ 790575 h 1001886"/>
+                    <a:gd name="connsiteX46" fmla="*/ 8794 w 540751"/>
+                    <a:gd name="connsiteY46" fmla="*/ 819150 h 1001886"/>
+                    <a:gd name="connsiteX47" fmla="*/ 84994 w 540751"/>
+                    <a:gd name="connsiteY47" fmla="*/ 838200 h 1001886"/>
+                    <a:gd name="connsiteX48" fmla="*/ 132619 w 540751"/>
+                    <a:gd name="connsiteY48" fmla="*/ 847725 h 1001886"/>
+                    <a:gd name="connsiteX49" fmla="*/ 161194 w 540751"/>
+                    <a:gd name="connsiteY49" fmla="*/ 857250 h 1001886"/>
+                    <a:gd name="connsiteX50" fmla="*/ 361219 w 540751"/>
+                    <a:gd name="connsiteY50" fmla="*/ 876300 h 1001886"/>
+                    <a:gd name="connsiteX51" fmla="*/ 427894 w 540751"/>
+                    <a:gd name="connsiteY51" fmla="*/ 885825 h 1001886"/>
+                    <a:gd name="connsiteX52" fmla="*/ 399319 w 540751"/>
+                    <a:gd name="connsiteY52" fmla="*/ 895350 h 1001886"/>
+                    <a:gd name="connsiteX53" fmla="*/ 361219 w 540751"/>
+                    <a:gd name="connsiteY53" fmla="*/ 904875 h 1001886"/>
+                    <a:gd name="connsiteX54" fmla="*/ 294544 w 540751"/>
+                    <a:gd name="connsiteY54" fmla="*/ 933450 h 1001886"/>
+                    <a:gd name="connsiteX55" fmla="*/ 199294 w 540751"/>
+                    <a:gd name="connsiteY55" fmla="*/ 981075 h 1001886"/>
+                    <a:gd name="connsiteX56" fmla="*/ 161194 w 540751"/>
+                    <a:gd name="connsiteY56" fmla="*/ 1000125 h 1001886"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX13" y="connsiteY13"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX14" y="connsiteY14"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX15" y="connsiteY15"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX16" y="connsiteY16"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX17" y="connsiteY17"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX18" y="connsiteY18"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX19" y="connsiteY19"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX20" y="connsiteY20"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX21" y="connsiteY21"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX22" y="connsiteY22"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX23" y="connsiteY23"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX24" y="connsiteY24"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX25" y="connsiteY25"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX26" y="connsiteY26"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX27" y="connsiteY27"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX28" y="connsiteY28"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX29" y="connsiteY29"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX30" y="connsiteY30"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX31" y="connsiteY31"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX32" y="connsiteY32"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX33" y="connsiteY33"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX34" y="connsiteY34"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX35" y="connsiteY35"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX36" y="connsiteY36"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX37" y="connsiteY37"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX38" y="connsiteY38"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX39" y="connsiteY39"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX40" y="connsiteY40"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX41" y="connsiteY41"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX42" y="connsiteY42"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX43" y="connsiteY43"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX44" y="connsiteY44"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX45" y="connsiteY45"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX46" y="connsiteY46"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX47" y="connsiteY47"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX48" y="connsiteY48"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX49" y="connsiteY49"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX50" y="connsiteY50"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX51" y="connsiteY51"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX52" y="connsiteY52"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX53" y="connsiteY53"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX54" y="connsiteY54"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX55" y="connsiteY55"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX56" y="connsiteY56"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="540751" h="1001886">
+                      <a:moveTo>
+                        <a:pt x="189769" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="285019" y="3175"/>
+                        <a:pt x="380363" y="4239"/>
+                        <a:pt x="475519" y="9525"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="494802" y="10596"/>
+                        <a:pt x="521081" y="3600"/>
+                        <a:pt x="532669" y="19050"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="540751" y="29826"/>
+                        <a:pt x="515790" y="40942"/>
+                        <a:pt x="504094" y="47625"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="492728" y="54120"/>
+                        <a:pt x="478251" y="52553"/>
+                        <a:pt x="465994" y="57150"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="452699" y="62136"/>
+                        <a:pt x="440222" y="69155"/>
+                        <a:pt x="427894" y="76200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="417955" y="81880"/>
+                        <a:pt x="409558" y="90130"/>
+                        <a:pt x="399319" y="95250"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="374603" y="107608"/>
+                        <a:pt x="337983" y="109422"/>
+                        <a:pt x="313594" y="114300"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="300757" y="116867"/>
+                        <a:pt x="288033" y="120063"/>
+                        <a:pt x="275494" y="123825"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="246644" y="132480"/>
+                        <a:pt x="218344" y="142875"/>
+                        <a:pt x="189769" y="152400"/>
+                      </a:cubicBezTo>
+                      <a:lnTo>
+                        <a:pt x="161194" y="161925"/>
+                      </a:lnTo>
+                      <a:cubicBezTo>
+                        <a:pt x="154844" y="171450"/>
+                        <a:pt x="138524" y="179640"/>
+                        <a:pt x="142144" y="190500"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="146217" y="202720"/>
+                        <a:pt x="206639" y="234223"/>
+                        <a:pt x="218344" y="238125"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="233703" y="243245"/>
+                        <a:pt x="250263" y="243723"/>
+                        <a:pt x="265969" y="247650"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="333973" y="264651"/>
+                        <a:pt x="256606" y="264117"/>
+                        <a:pt x="389794" y="276225"/>
+                      </a:cubicBezTo>
+                      <a:lnTo>
+                        <a:pt x="494569" y="285750"/>
+                      </a:lnTo>
+                      <a:cubicBezTo>
+                        <a:pt x="469169" y="288925"/>
+                        <a:pt x="443618" y="291067"/>
+                        <a:pt x="418369" y="295275"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="405456" y="297427"/>
+                        <a:pt x="393048" y="301960"/>
+                        <a:pt x="380269" y="304800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="364465" y="308312"/>
+                        <a:pt x="348645" y="311863"/>
+                        <a:pt x="332644" y="314325"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="307344" y="318217"/>
+                        <a:pt x="281744" y="319958"/>
+                        <a:pt x="256444" y="323850"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="213752" y="330418"/>
+                        <a:pt x="215013" y="331310"/>
+                        <a:pt x="180244" y="342900"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="173894" y="352425"/>
+                        <a:pt x="158949" y="360250"/>
+                        <a:pt x="161194" y="371475"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="164709" y="389051"/>
+                        <a:pt x="219776" y="397738"/>
+                        <a:pt x="227869" y="400050"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="237523" y="402808"/>
+                        <a:pt x="246540" y="407924"/>
+                        <a:pt x="256444" y="409575"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="284804" y="414302"/>
+                        <a:pt x="313640" y="415534"/>
+                        <a:pt x="342169" y="419100"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="410427" y="427632"/>
+                        <a:pt x="393697" y="424838"/>
+                        <a:pt x="446944" y="438150"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="437419" y="444500"/>
+                        <a:pt x="428891" y="452691"/>
+                        <a:pt x="418369" y="457200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="394713" y="467338"/>
+                        <a:pt x="331105" y="473160"/>
+                        <a:pt x="313594" y="476250"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="281708" y="481877"/>
+                        <a:pt x="250094" y="488950"/>
+                        <a:pt x="218344" y="495300"/>
+                      </a:cubicBezTo>
+                      <a:lnTo>
+                        <a:pt x="170719" y="504825"/>
+                      </a:lnTo>
+                      <a:cubicBezTo>
+                        <a:pt x="151028" y="508763"/>
+                        <a:pt x="113569" y="523875"/>
+                        <a:pt x="113569" y="523875"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="140677" y="564538"/>
+                        <a:pt x="120602" y="548307"/>
+                        <a:pt x="170719" y="561975"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="193019" y="568057"/>
+                        <a:pt x="214631" y="577008"/>
+                        <a:pt x="237394" y="581025"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="268817" y="586570"/>
+                        <a:pt x="300911" y="587210"/>
+                        <a:pt x="332644" y="590550"/>
+                      </a:cubicBezTo>
+                      <a:lnTo>
+                        <a:pt x="418369" y="600075"/>
+                      </a:lnTo>
+                      <a:cubicBezTo>
+                        <a:pt x="431069" y="603250"/>
+                        <a:pt x="465726" y="600343"/>
+                        <a:pt x="456469" y="609600"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="442813" y="623256"/>
+                        <a:pt x="418483" y="616730"/>
+                        <a:pt x="399319" y="619125"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="367657" y="623083"/>
+                        <a:pt x="335731" y="624692"/>
+                        <a:pt x="304069" y="628650"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="284905" y="631045"/>
+                        <a:pt x="266062" y="635623"/>
+                        <a:pt x="246919" y="638175"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="218420" y="641975"/>
+                        <a:pt x="189769" y="644525"/>
+                        <a:pt x="161194" y="647700"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="132487" y="666838"/>
+                        <a:pt x="105327" y="671971"/>
+                        <a:pt x="170719" y="695325"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="201211" y="706215"/>
+                        <a:pt x="235252" y="704136"/>
+                        <a:pt x="265969" y="714375"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="321819" y="732992"/>
+                        <a:pt x="284565" y="722791"/>
+                        <a:pt x="380269" y="733425"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305482" y="752122"/>
+                        <a:pt x="362346" y="739980"/>
+                        <a:pt x="237394" y="752475"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="132589" y="762956"/>
+                        <a:pt x="165108" y="759312"/>
+                        <a:pt x="56419" y="781050"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="46574" y="783019"/>
+                        <a:pt x="37369" y="787400"/>
+                        <a:pt x="27844" y="790575"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="21494" y="800100"/>
+                        <a:pt x="0" y="811821"/>
+                        <a:pt x="8794" y="819150"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="28907" y="835911"/>
+                        <a:pt x="59321" y="833065"/>
+                        <a:pt x="84994" y="838200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="100869" y="841375"/>
+                        <a:pt x="116913" y="843798"/>
+                        <a:pt x="132619" y="847725"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="142359" y="850160"/>
+                        <a:pt x="151349" y="855281"/>
+                        <a:pt x="161194" y="857250"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="229386" y="870888"/>
+                        <a:pt x="290031" y="869520"/>
+                        <a:pt x="361219" y="876300"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="383569" y="878429"/>
+                        <a:pt x="405669" y="882650"/>
+                        <a:pt x="427894" y="885825"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="418369" y="889000"/>
+                        <a:pt x="408973" y="892592"/>
+                        <a:pt x="399319" y="895350"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="386732" y="898946"/>
+                        <a:pt x="373251" y="899718"/>
+                        <a:pt x="361219" y="904875"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="269129" y="944342"/>
+                        <a:pt x="403927" y="906104"/>
+                        <a:pt x="294544" y="933450"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="226502" y="978812"/>
+                        <a:pt x="259606" y="965997"/>
+                        <a:pt x="199294" y="981075"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="168077" y="1001886"/>
+                        <a:pt x="182167" y="1000125"/>
+                        <a:pt x="161194" y="1000125"/>
+                      </a:cubicBezTo>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="63" name="TextBox 62"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="19135726" y="4476751"/>
+                  <a:ext cx="676274" cy="266698"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>service()</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="17392650" y="2886075"/>
+                <a:ext cx="0" cy="1419225"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="72" name="TextBox 71"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="16859250" y="2638426"/>
+                <a:ext cx="1028700" cy="266700"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>HTTP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> response</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="TextBox 82"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15316200" y="5800724"/>
+              <a:ext cx="2828925" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> Request sẽ được gửi đến các Servlet tương ứng với URL pattern của servlet đó.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="16278225" y="5372100"/>
+            <a:ext cx="676276" cy="23813"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="TextBox 68"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16192500" y="5076825"/>
+            <a:ext cx="844205" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>new thread</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Right Arrow 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="4229100"/>
+          <a:ext cx="762000" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Right Arrow 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="4219575"/>
+          <a:ext cx="762000" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Right Arrow 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13754100" y="4257675"/>
+          <a:ext cx="762000" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="84" name="Group 83"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="266700" y="5543550"/>
+          <a:ext cx="3914775" cy="2828925"/>
+          <a:chOff x="266700" y="3257550"/>
+          <a:chExt cx="3914775" cy="2828925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 4"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="266700" y="3257550"/>
+            <a:ext cx="3914775" cy="2524125"/>
+            <a:chOff x="333375" y="3276600"/>
+            <a:chExt cx="2695575" cy="1914525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="333375" y="3276600"/>
+              <a:ext cx="2695575" cy="1914525"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>JVM</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="714375" y="3676650"/>
+              <a:ext cx="1952625" cy="1057275"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Web container (tomcat)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="TextBox 78"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1085850" y="5791200"/>
+            <a:ext cx="1933575" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>1. Start web container.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="6353175"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="Group 84"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4895850" y="5524500"/>
+          <a:ext cx="3914775" cy="2828925"/>
+          <a:chOff x="4895850" y="3238500"/>
+          <a:chExt cx="3914775" cy="2828925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="23" name="Group 22"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4895850" y="3238500"/>
+            <a:ext cx="3914775" cy="2524125"/>
+            <a:chOff x="5476875" y="3267075"/>
+            <a:chExt cx="3914775" cy="2524125"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="15" name="Group 14"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5476875" y="3267075"/>
+              <a:ext cx="3914775" cy="2524125"/>
+              <a:chOff x="333375" y="3276600"/>
+              <a:chExt cx="2695575" cy="1914525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="333375" y="3276600"/>
+                <a:ext cx="2695575" cy="1914525"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>JVM</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="681582" y="3561056"/>
+                <a:ext cx="2124376" cy="1326635"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent5">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Web container (tomcat)</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6229350" y="4133850"/>
+              <a:ext cx="2590800" cy="962025"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Web app</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Snip Single Corner Rectangle 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6429375" y="4648200"/>
+              <a:ext cx="790575" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="snip1Rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>web.xml</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="TextBox 80"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5819775" y="5772150"/>
+            <a:ext cx="2181225" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>2. Load Web app vào</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> container</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="Group 85"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9677400" y="5534025"/>
+          <a:ext cx="3914775" cy="3352799"/>
+          <a:chOff x="9677400" y="3248025"/>
+          <a:chExt cx="3914775" cy="3352799"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="39" name="Group 38"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9677400" y="3248025"/>
+            <a:ext cx="3914775" cy="2524125"/>
+            <a:chOff x="9677400" y="3248025"/>
+            <a:chExt cx="3914775" cy="2524125"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="24" name="Group 23"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="9677400" y="3248025"/>
+              <a:ext cx="3914775" cy="2524125"/>
+              <a:chOff x="5476875" y="3267075"/>
+              <a:chExt cx="3914775" cy="2524125"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="25" name="Group 14"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="5476875" y="3267075"/>
+                <a:ext cx="3914775" cy="2524125"/>
+                <a:chOff x="333375" y="3276600"/>
+                <a:chExt cx="2695575" cy="1914525"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="333375" y="3276600"/>
+                  <a:ext cx="2695575" cy="1914525"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>JVM</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="517015" y="3561055"/>
+                  <a:ext cx="2288943" cy="1478352"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Web container (tomcat)</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5953125" y="4000500"/>
+                <a:ext cx="2867025" cy="1428750"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent3">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent3"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent3"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Web app</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="27" name="Snip Single Corner Rectangle 26"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6200775" y="5067300"/>
+                <a:ext cx="790575" cy="238125"/>
+              </a:xfrm>
+              <a:prstGeom prst="snip1Rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent4"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent4"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>web.xml</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="32" name="Group 31"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="10410825" y="4400550"/>
+              <a:ext cx="2352675" cy="390525"/>
+              <a:chOff x="10410825" y="4400550"/>
+              <a:chExt cx="2352675" cy="390525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10410825" y="4400550"/>
+                <a:ext cx="1000125" cy="390525"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent6"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Servlet1</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11763375" y="4400550"/>
+                <a:ext cx="1000125" cy="390525"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent6"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Servlet1</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="TextBox 81"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10039350" y="5791199"/>
+            <a:ext cx="3238500" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>3. Load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> các servlet được khai báo trong web app.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Lúc này, container có thể khởi tạo cho servlet (init) hoặc đợi đến khi có request đầu tiên (khai báo tag &lt;load-on-startup&gt; trong &lt;serlet&gt;).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="12563475"/>
+          <a:ext cx="6105525" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="20193000"/>
+          <a:ext cx="12792075" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7715250" y="11630025"/>
+          <a:ext cx="9944100" cy="6600825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1333500"/>
+          <a:ext cx="10734675" cy="7696200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2393,12 +5713,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,7 +5794,7 @@
   <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2504,7 +5850,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45">
@@ -2526,7 +5872,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2565,11 +5911,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:7" s="11" customFormat="1" ht="120.75" thickBot="1">
       <c r="A3" s="9">
@@ -2585,7 +5931,7 @@
         <v>240</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="29.25" thickBot="1">
@@ -2644,11 +5990,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" ht="43.5" thickBot="1">
       <c r="A10" s="9">
@@ -2750,11 +6096,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" s="11" customFormat="1" ht="43.5" thickBot="1">
       <c r="A20" s="9">
@@ -2900,11 +6246,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" s="11" customFormat="1" ht="43.5" thickBot="1">
       <c r="A34" s="9">
@@ -3025,7 +6371,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.140625" defaultRowHeight="15"/>
@@ -3048,11 +6394,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="43.5" thickBot="1">
       <c r="A3" s="9">
@@ -3187,11 +6533,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="72" thickBot="1">
       <c r="A16" s="9">
@@ -3326,11 +6672,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="29.25" thickBot="1">
       <c r="A29" s="9">
@@ -3564,11 +6910,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="9">
@@ -3681,11 +7027,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" s="9">
@@ -3745,24 +7091,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3773,7 +7105,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3802,7 +7134,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3824,16 +7156,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3841,10 +7173,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3852,10 +7184,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3863,10 +7195,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3874,10 +7206,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3885,249 +7217,254 @@
         <v>254</v>
       </c>
       <c r="C13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>256</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>257</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="E15" t="s">
+    <row r="16" spans="1:5">
+      <c r="E16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="C16">
+    <row r="17" spans="1:7">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>258</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="E17" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="C19">
+    <row r="20" spans="1:7">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>262</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="E20" t="s">
+    <row r="21" spans="1:7">
+      <c r="E21" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="F21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="F23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="F24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:7" ht="30">
+      <c r="B25" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row r="26" spans="1:7">
-      <c r="B26" t="s">
+      <c r="A26" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
         <v>274</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>272</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="C28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="C29" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="C30" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="C31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" t="s">
         <v>280</v>
       </c>
-      <c r="E31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" t="s">
+      <c r="E32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
         <v>282</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>283</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="E33" t="s">
+    <row r="34" spans="1:5">
+      <c r="E34" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="C34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E34" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="C35" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="C36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="C37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" t="s">
         <v>304</v>
       </c>
-      <c r="E37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" t="s">
+      <c r="C40" t="s">
         <v>310</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="C40" t="s">
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
-        <v>313</v>
-      </c>
-      <c r="C41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
       <c r="C42" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="C43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="C44" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
         <v>316</v>
-      </c>
-      <c r="C45" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="C46" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="C47" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4138,12 +7475,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4153,156 +7490,546 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="19" t="s">
-        <v>354</v>
+      <c r="B22" s="18" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K158"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="O159" sqref="O159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="K45" s="19"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="7"/>
+      <c r="C57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="C62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="C63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="C64" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="C98" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="C99" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="C100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="C101" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="C102" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="C103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="B158" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A54" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>